--- a/2_Ano/Investigação Operacional/Projeto/2017_IO_Projeto_1_.xlsx
+++ b/2_Ano/Investigação Operacional/Projeto/2017_IO_Projeto_1_.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="10950" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="GAP_1" sheetId="1" r:id="rId1"/>
     <sheet name="GAP_2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -437,6 +440,837 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Folha1"/>
+      <sheetName val="Folha2"/>
+      <sheetName val="Folha3"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="D3" t="str">
+            <v>y</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4">
+            <v>41</v>
+          </cell>
+          <cell r="D4">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5">
+            <v>35</v>
+          </cell>
+          <cell r="D5">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>55</v>
+          </cell>
+          <cell r="D6">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>55</v>
+          </cell>
+          <cell r="D7">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>15</v>
+          </cell>
+          <cell r="D8">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>25</v>
+          </cell>
+          <cell r="D9">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>20</v>
+          </cell>
+          <cell r="D10">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>10</v>
+          </cell>
+          <cell r="D11">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>55</v>
+          </cell>
+          <cell r="D12">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>30</v>
+          </cell>
+          <cell r="D13">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="C14">
+            <v>20</v>
+          </cell>
+          <cell r="D14">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="C15">
+            <v>50</v>
+          </cell>
+          <cell r="D15">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="C16">
+            <v>30</v>
+          </cell>
+          <cell r="D16">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="C17">
+            <v>15</v>
+          </cell>
+          <cell r="D17">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="C18">
+            <v>30</v>
+          </cell>
+          <cell r="D18">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="C19">
+            <v>10</v>
+          </cell>
+          <cell r="D19">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="C20">
+            <v>5</v>
+          </cell>
+          <cell r="D20">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="C21">
+            <v>20</v>
+          </cell>
+          <cell r="D21">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="C22">
+            <v>15</v>
+          </cell>
+          <cell r="D22">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="C23">
+            <v>45</v>
+          </cell>
+          <cell r="D23">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="C24">
+            <v>45</v>
+          </cell>
+          <cell r="D24">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="C25">
+            <v>45</v>
+          </cell>
+          <cell r="D25">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="C26">
+            <v>55</v>
+          </cell>
+          <cell r="D26">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="C27">
+            <v>65</v>
+          </cell>
+          <cell r="D27">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="C28">
+            <v>65</v>
+          </cell>
+          <cell r="D28">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="C29">
+            <v>45</v>
+          </cell>
+          <cell r="D29">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="C30">
+            <v>35</v>
+          </cell>
+          <cell r="D30">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="C31">
+            <v>41</v>
+          </cell>
+          <cell r="D31">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="C32">
+            <v>64</v>
+          </cell>
+          <cell r="D32">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="C33">
+            <v>40</v>
+          </cell>
+          <cell r="D33">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="C34">
+            <v>31</v>
+          </cell>
+          <cell r="D34">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="C35">
+            <v>35</v>
+          </cell>
+          <cell r="D35">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="C36">
+            <v>53</v>
+          </cell>
+          <cell r="D36">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="C37">
+            <v>65</v>
+          </cell>
+          <cell r="D37">
+            <v>55</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="C38">
+            <v>63</v>
+          </cell>
+          <cell r="D38">
+            <v>65</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="C39">
+            <v>2</v>
+          </cell>
+          <cell r="D39">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="C40">
+            <v>20</v>
+          </cell>
+          <cell r="D40">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="C41">
+            <v>5</v>
+          </cell>
+          <cell r="D41">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="C42">
+            <v>60</v>
+          </cell>
+          <cell r="D42">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="C43">
+            <v>40</v>
+          </cell>
+          <cell r="D43">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="C44">
+            <v>42</v>
+          </cell>
+          <cell r="D44">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="C45">
+            <v>24</v>
+          </cell>
+          <cell r="D45">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="C46">
+            <v>23</v>
+          </cell>
+          <cell r="D46">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="C47">
+            <v>11</v>
+          </cell>
+          <cell r="D47">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="C48">
+            <v>6</v>
+          </cell>
+          <cell r="D48">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="C49">
+            <v>2</v>
+          </cell>
+          <cell r="D49">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="C50">
+            <v>8</v>
+          </cell>
+          <cell r="D50">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="C51">
+            <v>13</v>
+          </cell>
+          <cell r="D51">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>6</v>
+          </cell>
+          <cell r="D52">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>47</v>
+          </cell>
+          <cell r="D53">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>49</v>
+          </cell>
+          <cell r="D54">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>27</v>
+          </cell>
+          <cell r="D55">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>37</v>
+          </cell>
+          <cell r="D56">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>57</v>
+          </cell>
+          <cell r="D57">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>63</v>
+          </cell>
+          <cell r="D58">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>53</v>
+          </cell>
+          <cell r="D59">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>32</v>
+          </cell>
+          <cell r="D60">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>36</v>
+          </cell>
+          <cell r="D61">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>21</v>
+          </cell>
+          <cell r="D62">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>17</v>
+          </cell>
+          <cell r="D63">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>12</v>
+          </cell>
+          <cell r="D64">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>24</v>
+          </cell>
+          <cell r="D65">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>27</v>
+          </cell>
+          <cell r="D66">
+            <v>69</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>15</v>
+          </cell>
+          <cell r="D67">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>62</v>
+          </cell>
+          <cell r="D68">
+            <v>77</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>49</v>
+          </cell>
+          <cell r="D69">
+            <v>73</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>67</v>
+          </cell>
+          <cell r="D70">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>56</v>
+          </cell>
+          <cell r="D71">
+            <v>39</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>37</v>
+          </cell>
+          <cell r="D72">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>37</v>
+          </cell>
+          <cell r="D73">
+            <v>56</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>57</v>
+          </cell>
+          <cell r="D74">
+            <v>68</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>47</v>
+          </cell>
+          <cell r="D75">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>44</v>
+          </cell>
+          <cell r="D76">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>46</v>
+          </cell>
+          <cell r="D77">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>49</v>
+          </cell>
+          <cell r="D78">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>49</v>
+          </cell>
+          <cell r="D79">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="C80">
+            <v>53</v>
+          </cell>
+          <cell r="D80">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="C81">
+            <v>61</v>
+          </cell>
+          <cell r="D81">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="C82">
+            <v>57</v>
+          </cell>
+          <cell r="D82">
+            <v>48</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="C83">
+            <v>56</v>
+          </cell>
+          <cell r="D83">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="C84">
+            <v>55</v>
+          </cell>
+          <cell r="D84">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="C85">
+            <v>15</v>
+          </cell>
+          <cell r="D85">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="C86">
+            <v>14</v>
+          </cell>
+          <cell r="D86">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="C87">
+            <v>11</v>
+          </cell>
+          <cell r="D87">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="C88">
+            <v>16</v>
+          </cell>
+          <cell r="D88">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="C89">
+            <v>4</v>
+          </cell>
+          <cell r="D89">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="C90">
+            <v>28</v>
+          </cell>
+          <cell r="D90">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="C91">
+            <v>26</v>
+          </cell>
+          <cell r="D91">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="C92">
+            <v>26</v>
+          </cell>
+          <cell r="D92">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="C93">
+            <v>31</v>
+          </cell>
+          <cell r="D93">
+            <v>67</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="C94">
+            <v>15</v>
+          </cell>
+          <cell r="D94">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="C95">
+            <v>22</v>
+          </cell>
+          <cell r="D95">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="C96">
+            <v>18</v>
+          </cell>
+          <cell r="D96">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="C97">
+            <v>26</v>
+          </cell>
+          <cell r="D97">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="C98">
+            <v>25</v>
+          </cell>
+          <cell r="D98">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="C99">
+            <v>22</v>
+          </cell>
+          <cell r="D99">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="C100">
+            <v>25</v>
+          </cell>
+          <cell r="D100">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="C101">
+            <v>19</v>
+          </cell>
+          <cell r="D101">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="C102">
+            <v>20</v>
+          </cell>
+          <cell r="D102">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="C103">
+            <v>18</v>
+          </cell>
+          <cell r="D103">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="C104">
+            <v>35</v>
+          </cell>
+          <cell r="D104">
+            <v>35</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
@@ -702,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J69"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="75" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView topLeftCell="D13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1848,7 +2682,7 @@
         <v>53.8</v>
       </c>
       <c r="H55" s="21">
-        <v>53.8</v>
+        <v>46.8</v>
       </c>
       <c r="I55" s="22">
         <v>46.8</v>
@@ -2184,8 +3018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="77" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="C47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
